--- a/N4-data.xlsx
+++ b/N4-data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Peter the Great St. Petersburg Polytechnical University\sth else\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDriveUniversity\OneDrive - akhyt\李逸嘉\06\MMСРП\курсовая 2022\2022-MM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA06CE9-D7D7-415B-BC96-E6032B782CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB8E52-4703-422C-A127-9A1C4D936E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20390" yWindow="2140" windowWidth="21600" windowHeight="11090" xr2:uid="{4A2F6B73-5B30-44CD-AC56-B3E7DFBA5DC2}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" activeTab="1" xr2:uid="{4A2F6B73-5B30-44CD-AC56-B3E7DFBA5DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
@@ -47,14 +48,19 @@
     <t>K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="185" formatCode="0.00000000000"/>
-    <numFmt numFmtId="195" formatCode="0.00000000000E+00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.00000000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="184" formatCode="0.000000000E+00"/>
+    <numFmt numFmtId="185" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -104,7 +110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -114,7 +120,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -436,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693817C9-B3CD-4A2C-85DE-1F13FA677BEB}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,4 +781,360 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BC670F-0446-427A-870D-D5CC6D1EA408}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8.8817841970012504E-16</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.6481005327715299E-8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.4346325210104801E-8</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.7967587225048396E-8</v>
+      </c>
+      <c r="C4">
+        <v>0.53674121470462899</v>
+      </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.3287619804458401E-7</v>
+      </c>
+      <c r="C5">
+        <v>0.51151062587027696</v>
+      </c>
+      <c r="D5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.5018970284971202E-7</v>
+      </c>
+      <c r="C6">
+        <v>0.29515601357266702</v>
+      </c>
+      <c r="D6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.3284328821744396E-7</v>
+      </c>
+      <c r="C7">
+        <v>0.71137627787406998</v>
+      </c>
+      <c r="D7">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>256</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.50156483158525E-6</v>
+      </c>
+      <c r="C8">
+        <v>0.421455853857025</v>
+      </c>
+      <c r="D8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.9539925233402701E-14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.6646102274364601E-7</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.17384387716364E-7</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3.5066941217465299E-7</v>
+      </c>
+      <c r="C15">
+        <v>0.474695017484843</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.2209404211598298E-7</v>
+      </c>
+      <c r="C16">
+        <v>0.48562845242022901</v>
+      </c>
+      <c r="D16">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.0497642897178101E-6</v>
+      </c>
+      <c r="C17">
+        <v>0.68786302714687397</v>
+      </c>
+      <c r="D17">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>128</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.9419505048467998E-6</v>
+      </c>
+      <c r="C18">
+        <v>0.54057211401514504</v>
+      </c>
+      <c r="D18">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>256</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.09525034586566E-6</v>
+      </c>
+      <c r="C19">
+        <v>0.38112955655309799</v>
+      </c>
+      <c r="D19">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3.3816720212027598E-2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>8.9204681101426805E-3</v>
+      </c>
+      <c r="C25">
+        <v>3.7909131891383101</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.2537694013895402E-3</v>
+      </c>
+      <c r="C26">
+        <v>3.9580216612412999</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5.6489277298354902E-4</v>
+      </c>
+      <c r="C27">
+        <v>3.9897295720141601</v>
+      </c>
+      <c r="D27">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1.4022234285548899E-4</v>
+      </c>
+      <c r="C28">
+        <v>4.02855038277115</v>
+      </c>
+      <c r="D28">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3.8116506736462997E-5</v>
+      </c>
+      <c r="C29">
+        <v>3.67878262887479</v>
+      </c>
+      <c r="D29">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>256</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1.9169030723409299E-5</v>
+      </c>
+      <c r="C30">
+        <v>1.98844204938932</v>
+      </c>
+      <c r="D30">
+        <v>1572</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>